--- a/Modellierungen/Zielhierachie.xlsx
+++ b/Modellierungen/Zielhierachie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederik\Documents\GitHub\EPWS2223HausenKochZimmer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files (x86)\EPWS2223HausenKochZimmer\Modellierungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F9AA82-668F-485E-8124-FF0856E1C29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FB0407-2289-447B-B997-112525156C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7E56030-8F2E-40B7-9477-178C4C9FAE1E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E7E56030-8F2E-40B7-9477-178C4C9FAE1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Zielhierachie" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -457,15 +457,245 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -479,24 +709,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -512,7 +764,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -808,13 +1060,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45BC9B02-B111-4E0F-9380-EEF4ECB64375}">
-  <dimension ref="B1:G55"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="143.140625" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
@@ -822,267 +1074,292 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="13" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="2:7" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="36"/>
+    </row>
+    <row r="3" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="22" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="24"/>
+      <c r="D4" s="25" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="25" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="26"/>
+      <c r="D6" s="27" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="11"/>
-    </row>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+    </row>
+    <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:7" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="24"/>
+      <c r="D11" s="30" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="24"/>
+      <c r="D12" s="29" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="24"/>
+      <c r="D13" s="28" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="24"/>
+      <c r="D14" s="28" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="C15" s="24"/>
+      <c r="D15" s="28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="14" t="s">
+    <row r="16" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="C16" s="26"/>
+      <c r="D16" s="27" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
       <c r="B17" s="14"/>
-      <c r="D17" s="11"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="15"/>
-      <c r="D18" s="11"/>
-    </row>
-    <row r="19" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="14"/>
-      <c r="D19" s="11"/>
-    </row>
-    <row r="20" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="D20" s="11"/>
-    </row>
-    <row r="21" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-      <c r="D21" s="11"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="7"/>
-      <c r="D22" s="11"/>
-    </row>
-    <row r="23" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="6"/>
-      <c r="D23" s="11"/>
-    </row>
-    <row r="24" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="4"/>
-      <c r="D24" s="11"/>
-    </row>
-    <row r="25" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="11"/>
-    </row>
-    <row r="26" spans="2:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="10" t="s">
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="11"/>
-    </row>
-    <row r="27" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="14" t="s">
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="C21" s="19"/>
+      <c r="D21" s="31" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="14" t="s">
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="C22" s="19"/>
+      <c r="D22" s="29" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="18" t="s">
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="C23" s="24"/>
+      <c r="D23" s="29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="14" t="s">
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D30" t="s">
+      <c r="C24" s="24"/>
+      <c r="D24" s="28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="18" t="s">
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D31" t="s">
+      <c r="C25" s="24"/>
+      <c r="D25" s="28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="14" t="s">
+    <row r="26" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D32" t="s">
+      <c r="C26" s="18"/>
+      <c r="D26" s="32" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="14"/>
-    </row>
-    <row r="34" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="14"/>
-    </row>
-    <row r="35" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="14"/>
-    </row>
-    <row r="36" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="14"/>
-    </row>
-    <row r="37" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="14"/>
-    </row>
-    <row r="38" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="14"/>
-    </row>
-    <row r="39" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="14"/>
-    </row>
-    <row r="40" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="14"/>
-    </row>
-    <row r="41" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="14"/>
-    </row>
-    <row r="42" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="14"/>
-    </row>
-    <row r="43" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="14"/>
-    </row>
-    <row r="44" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="14"/>
-    </row>
-    <row r="45" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="14"/>
-    </row>
-    <row r="46" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="14"/>
-    </row>
-    <row r="47" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B47" s="16"/>
-    </row>
-    <row r="48" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B48" s="6"/>
-    </row>
-    <row r="49" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B49" s="16"/>
-    </row>
-    <row r="50" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B50" s="16"/>
-    </row>
-    <row r="51" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B51" s="16"/>
-    </row>
-    <row r="52" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B52" s="16"/>
-    </row>
-    <row r="53" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B53" s="6"/>
-    </row>
-    <row r="54" spans="2:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="9"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="1"/>
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="34"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="15"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="15"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="15"/>
+      <c r="C30" s="13"/>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="13"/>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="13"/>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="15"/>
+      <c r="C33" s="13"/>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="15"/>
+      <c r="C34" s="13"/>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="15"/>
+      <c r="C35" s="13"/>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="13"/>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="13"/>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="13"/>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="13"/>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="13"/>
+    </row>
+    <row r="41" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="13"/>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="13"/>
+    </row>
+    <row r="43" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="13"/>
+      <c r="B43" s="16"/>
+    </row>
+    <row r="44" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="13"/>
+      <c r="B44" s="16"/>
+    </row>
+    <row r="45" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+      <c r="B45" s="16"/>
+    </row>
+    <row r="46" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="13"/>
+      <c r="B46" s="16"/>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="13"/>
+      <c r="B47" s="15"/>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="13"/>
+      <c r="B48" s="15"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="17"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1098,140 +1375,138 @@
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="128.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="3:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="12" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="18" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="19" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="11"/>
-    </row>
+    <row r="21" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="3:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D23" t="s">
@@ -1239,7 +1514,7 @@
       </c>
     </row>
     <row r="24" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D24" t="s">
@@ -1247,7 +1522,7 @@
       </c>
     </row>
     <row r="25" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D25" t="s">
@@ -1255,7 +1530,7 @@
       </c>
     </row>
     <row r="26" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D26" t="s">
@@ -1263,7 +1538,7 @@
       </c>
     </row>
     <row r="27" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D27" t="s">
@@ -1271,7 +1546,7 @@
       </c>
     </row>
     <row r="28" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D28" t="s">
@@ -1279,7 +1554,7 @@
       </c>
     </row>
     <row r="29" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D29" t="s">
@@ -1287,7 +1562,7 @@
       </c>
     </row>
     <row r="30" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D30" t="s">
@@ -1295,7 +1570,7 @@
       </c>
     </row>
     <row r="31" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D31" t="s">
@@ -1303,7 +1578,7 @@
       </c>
     </row>
     <row r="32" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D32" t="s">
@@ -1311,7 +1586,7 @@
       </c>
     </row>
     <row r="33" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D33" t="s">
@@ -1319,7 +1594,7 @@
       </c>
     </row>
     <row r="34" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D34" t="s">
@@ -1327,17 +1602,17 @@
       </c>
     </row>
     <row r="35" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="36" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="37" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D37" t="s">
@@ -1345,7 +1620,7 @@
       </c>
     </row>
     <row r="38" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D38" t="s">
@@ -1353,7 +1628,7 @@
       </c>
     </row>
     <row r="39" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D39" t="s">
@@ -1361,7 +1636,7 @@
       </c>
     </row>
     <row r="40" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D40" t="s">
@@ -1369,7 +1644,7 @@
       </c>
     </row>
     <row r="41" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D41" t="s">
@@ -1377,7 +1652,7 @@
       </c>
     </row>
     <row r="42" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D42" t="s">
@@ -1385,7 +1660,7 @@
       </c>
     </row>
     <row r="43" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D43" t="s">
@@ -1393,7 +1668,7 @@
       </c>
     </row>
     <row r="44" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D44" t="s">
@@ -1401,7 +1676,7 @@
       </c>
     </row>
     <row r="45" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D45" t="s">
@@ -1409,7 +1684,7 @@
       </c>
     </row>
     <row r="46" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D46" t="s">
@@ -1417,7 +1692,7 @@
       </c>
     </row>
     <row r="47" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D47" t="s">
@@ -1425,7 +1700,7 @@
       </c>
     </row>
     <row r="48" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D48" t="s">
@@ -1433,7 +1708,7 @@
       </c>
     </row>
     <row r="49" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D49" t="s">
@@ -1441,7 +1716,7 @@
       </c>
     </row>
     <row r="50" spans="3:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="8" t="s">
         <v>43</v>
       </c>
     </row>
